--- a/Reportes/ReporteClientes.xlsx
+++ b/Reportes/ReporteClientes.xlsx
@@ -6,13 +6,37 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R9623d16c2fa84cb3"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rc823e1df160242bf"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <x:si>
+    <x:t>ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOMBRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APELLIDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DNI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMAIL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TELÉFONO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIRECCIÓN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FECHA NACIMIENTO</x:t>
+  </x:si>
   <x:si>
     <x:t>1</x:t>
   </x:si>
@@ -60,6 +84,27 @@
   </x:si>
   <x:si>
     <x:t>12/01/1972 0:00:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2002</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Roque</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37899878</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eri@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>37949234567</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Misiones 1000</x:t>
   </x:si>
   <x:si>
     <x:t>3002</x:t>
@@ -414,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:dimension ref="A1:H3"/>
+  <x:dimension ref="A1:H5"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
@@ -498,6 +543,58 @@
         <x:v>23</x:v>
       </x:c>
     </x:row>
+    <x:row r="4">
+      <x:c r="A4" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C4" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E4" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F4" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="G4" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5">
+      <x:c r="A5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="G5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
--- a/Reportes/ReporteClientes.xlsx
+++ b/Reportes/ReporteClientes.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Rc823e1df160242bf"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Re89c0ccd11b648d0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -71,7 +71,7 @@
     <x:t>Cherey</x:t>
   </x:si>
   <x:si>
-    <x:t>27889988</x:t>
+    <x:t>27889989</x:t>
   </x:si>
   <x:si>
     <x:t>elen@gmail.com</x:t>
@@ -92,7 +92,7 @@
     <x:t>Roque</x:t>
   </x:si>
   <x:si>
-    <x:t>Rios</x:t>
+    <x:t>Muñoz</x:t>
   </x:si>
   <x:si>
     <x:t>37899878</x:t>

--- a/Reportes/ReporteClientes.xlsx
+++ b/Reportes/ReporteClientes.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="Re89c0ccd11b648d0"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="Rfed39076d08a4da4"/>
   </x:sheets>
 </x:workbook>
 </file>
